--- a/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,18; 38,76</t>
+          <t>27,48; 39,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,92; 41,86</t>
+          <t>32,95; 41,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 38,81</t>
+          <t>31,34; 38,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,72; 35,4</t>
+          <t>24,59; 35,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 35,3</t>
+          <t>27,89; 35,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,01</t>
+          <t>27,8; 33,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,76; 33,73</t>
+          <t>23,53; 33,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,45</t>
+          <t>30,41; 38,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,28; 34,7</t>
+          <t>28,54; 35,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 36,59</t>
+          <t>23,09; 36,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,48; 45,94</t>
+          <t>34,38; 45,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 39,99</t>
+          <t>31,35; 39,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,88; 41,11</t>
+          <t>29,71; 41,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,57; 49,99</t>
+          <t>40,59; 50,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,32; 44,62</t>
+          <t>37,11; 44,6</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,73; 29,75</t>
+          <t>20,45; 29,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,1; 40,54</t>
+          <t>31,54; 40,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,01; 33,91</t>
+          <t>27,33; 33,58</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,78; 40,65</t>
+          <t>31,54; 40,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,17; 67,67</t>
+          <t>39,19; 66,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,18; 57,39</t>
+          <t>37,13; 57,55</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,88</t>
+          <t>8,92; 14,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 16,76</t>
+          <t>12,55; 17,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,37; 14,68</t>
+          <t>11,22; 14,82</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,14; 27,92</t>
+          <t>24,37; 28,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>31,61; 41,32</t>
+          <t>31,61; 41,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,84; 33,98</t>
+          <t>28,78; 34,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>32,71%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35,67%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -579,17 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,48; 39,02</t>
+          <t>12,3; 21,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,95; 41,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,34; 38,88</t>
+          <t>27,59; 38,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27,02; 38,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 20,83</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 43,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 40,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 19,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30,21; 38,65</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30,37; 37,6</t>
         </is>
       </c>
     </row>
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>26,34%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36,86%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
         </is>
       </c>
     </row>
@@ -629,17 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 35,35</t>
+          <t>19,71; 27,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,89; 35,79</t>
+          <t>23,87; 32,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 33,96</t>
+          <t>22,49; 30,35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23,24; 33,66</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29,99; 38,29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31,07; 39,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 41,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27,39; 35,32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 31,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,45; 34,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 34,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26,88; 33,03</t>
         </is>
       </c>
     </row>
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,36%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,53; 33,6</t>
+          <t>9,35; 16,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 38,53</t>
+          <t>25,15; 35,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,54; 35,22</t>
+          <t>9,41; 16,65</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22,09; 31,64</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16,04; 24,55</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27,49; 38,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 26,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27,98; 35,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 19,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27,61; 34,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 20,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 32,63</t>
         </is>
       </c>
     </row>
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>34,23%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32,44%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,09; 36,39</t>
+          <t>9,61; 17,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,38; 45,48</t>
+          <t>26,0; 33,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,35; 39,66</t>
+          <t>29,3; 39,1</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20,52; 32,4</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14,68; 22,28</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36,99; 44,64</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36,58; 47,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30,75; 41,73</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 18,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32,62; 37,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34,46; 41,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28,3; 36,41</t>
         </is>
       </c>
     </row>
@@ -756,17 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45,01%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,91%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 41,06</t>
+          <t>19,32; 31,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,59; 50,31</t>
+          <t>25,02; 38,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,6</t>
+          <t>4,67; 11,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28,89; 40,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23,53; 36,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34,07; 48,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 12,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40,29; 49,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23,14; 31,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31,12; 40,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 11,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36,46; 43,94</t>
         </is>
       </c>
     </row>
@@ -806,17 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30,8%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34,9%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29,17%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,45; 29,34</t>
+          <t>11,59; 20,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,54; 40,74</t>
+          <t>20,37; 30,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,33; 33,58</t>
+          <t>15,05; 25,19</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 28,04</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 29,26</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23,19; 34,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25,56; 37,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30,55; 39,93</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 23,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23,08; 30,61</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 29,55</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 32,75</t>
         </is>
       </c>
     </row>
@@ -856,17 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,35%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39,18%</t>
         </is>
       </c>
     </row>
@@ -879,17 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,54; 40,4</t>
+          <t>12,85; 18,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,19; 66,87</t>
+          <t>17,93; 24,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,13; 57,55</t>
+          <t>23,3; 31,21</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26,9; 35,3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20,28; 26,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 32,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26,81; 34,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35,65; 64,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 21,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 27,66</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 31,51</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>33,18; 54,82</t>
         </is>
       </c>
     </row>
@@ -906,17 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>18,81%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,24%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -929,17 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,02</t>
+          <t>19,65; 25,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,55; 17,06</t>
+          <t>19,57; 26,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,22; 14,82</t>
+          <t>16,15; 21,94</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 13,08</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>20,53; 27,32</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 29,19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 23,27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 16,45</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21,17; 25,74</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 26,96</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 21,66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 14,26</t>
         </is>
       </c>
     </row>
@@ -956,17 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32,45%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
         </is>
       </c>
     </row>
@@ -979,17 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,37; 28,05</t>
+          <t>16,94; 19,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>31,61; 41,57</t>
+          <t>24,42; 27,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,84</t>
+          <t>21,74; 24,76</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22,48; 25,91</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 25,72</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>30,95; 33,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26,92; 30,05</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29,85; 40,15</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 22,43</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 30,33</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 27,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 33,43</t>
         </is>
       </c>
     </row>
@@ -1001,15 +1911,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,7</t>
+          <t>12,2; 21,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 38,58</t>
+          <t>27,86; 39,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 38,46</t>
+          <t>26,7; 38,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 20,83</t>
+          <t>11,77; 21,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,28; 43,03</t>
+          <t>31,44; 43,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,48; 40,05</t>
+          <t>31,5; 40,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 19,61</t>
+          <t>12,75; 19,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,21; 38,65</t>
+          <t>30,3; 38,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,37; 37,6</t>
+          <t>30,55; 37,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,71; 27,57</t>
+          <t>19,81; 27,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,87; 32,29</t>
+          <t>23,45; 32,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 30,35</t>
+          <t>22,56; 30,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,24; 33,66</t>
+          <t>23,21; 33,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,99; 38,29</t>
+          <t>29,93; 38,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,07; 39,67</t>
+          <t>30,94; 39,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,75; 41,5</t>
+          <t>32,51; 40,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 35,32</t>
+          <t>27,17; 34,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,15; 31,86</t>
+          <t>26,15; 31,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,45; 34,35</t>
+          <t>28,5; 34,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,95; 34,81</t>
+          <t>28,97; 34,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 33,03</t>
+          <t>26,4; 32,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 16,87</t>
+          <t>9,02; 17,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,15; 35,73</t>
+          <t>25,07; 35,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,65</t>
+          <t>9,64; 16,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 31,64</t>
+          <t>21,74; 31,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,04; 24,55</t>
+          <t>16,18; 25,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 38,25</t>
+          <t>27,23; 37,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 26,59</t>
+          <t>17,21; 26,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,98; 35,83</t>
+          <t>27,62; 35,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,94</t>
+          <t>14,07; 19,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,61; 34,94</t>
+          <t>27,42; 34,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 20,41</t>
+          <t>14,91; 20,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,22; 32,63</t>
+          <t>26,29; 32,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,57</t>
+          <t>9,57; 17,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,42</t>
+          <t>26,16; 33,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,3; 39,1</t>
+          <t>29,33; 39,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 32,4</t>
+          <t>21,6; 33,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,28</t>
+          <t>14,4; 22,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,99; 44,64</t>
+          <t>37,35; 44,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,58; 47,14</t>
+          <t>36,7; 47,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 41,73</t>
+          <t>30,98; 41,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 18,33</t>
+          <t>13,26; 18,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,62; 37,82</t>
+          <t>32,56; 37,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,46; 41,58</t>
+          <t>34,62; 41,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,3; 36,41</t>
+          <t>28,6; 36,55</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,32; 31,64</t>
+          <t>19,73; 31,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,02; 38,3</t>
+          <t>24,92; 37,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,98</t>
+          <t>4,52; 12,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,89; 40,15</t>
+          <t>28,68; 40,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,53; 36,49</t>
+          <t>23,14; 36,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,07; 48,2</t>
+          <t>33,8; 46,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,61</t>
+          <t>5,03; 12,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,29; 49,97</t>
+          <t>40,09; 49,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,14; 31,9</t>
+          <t>22,99; 31,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,12; 40,36</t>
+          <t>31,2; 40,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,19</t>
+          <t>5,67; 11,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,46; 43,94</t>
+          <t>36,52; 43,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 20,53</t>
+          <t>11,88; 20,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,37; 30,88</t>
+          <t>20,39; 30,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,05; 25,19</t>
+          <t>15,67; 25,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 28,04</t>
+          <t>19,68; 28,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,9; 29,26</t>
+          <t>19,13; 29,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,19; 34,54</t>
+          <t>23,11; 33,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,56; 37,07</t>
+          <t>25,69; 36,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,55; 39,93</t>
+          <t>30,24; 39,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 23,43</t>
+          <t>16,66; 23,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,08; 30,61</t>
+          <t>23,12; 30,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,9; 29,55</t>
+          <t>21,64; 29,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,75</t>
+          <t>26,16; 32,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,85; 18,55</t>
+          <t>12,62; 18,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,93; 24,56</t>
+          <t>18,21; 25,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,3; 31,21</t>
+          <t>23,28; 30,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,9; 35,3</t>
+          <t>27,0; 35,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,28; 26,79</t>
+          <t>20,46; 26,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,51; 32,28</t>
+          <t>25,27; 32,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,81; 34,22</t>
+          <t>26,96; 34,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,65; 64,96</t>
+          <t>35,63; 66,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 21,82</t>
+          <t>17,16; 21,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,84; 27,66</t>
+          <t>22,92; 27,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,3; 31,51</t>
+          <t>26,12; 31,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,18; 54,82</t>
+          <t>33,21; 54,44</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,65; 25,95</t>
+          <t>19,72; 26,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,57; 26,03</t>
+          <t>19,81; 26,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,94</t>
+          <t>16,25; 22,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,08</t>
+          <t>8,18; 13,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,53; 27,32</t>
+          <t>20,78; 27,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,1; 29,19</t>
+          <t>23,12; 29,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,27</t>
+          <t>17,38; 23,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,45</t>
+          <t>12,09; 16,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,17; 25,74</t>
+          <t>21,22; 25,66</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,6; 26,96</t>
+          <t>22,54; 26,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,57; 21,66</t>
+          <t>17,49; 21,62</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,26</t>
+          <t>10,8; 14,03</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,94; 19,92</t>
+          <t>17,16; 20,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,42; 27,43</t>
+          <t>24,21; 27,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,74; 24,76</t>
+          <t>21,7; 24,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,48; 25,91</t>
+          <t>22,23; 25,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,67; 25,72</t>
+          <t>22,68; 25,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,95; 33,99</t>
+          <t>30,84; 34,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,92; 30,05</t>
+          <t>26,98; 30,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,85; 40,15</t>
+          <t>29,79; 40,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,33; 22,43</t>
+          <t>20,32; 22,3</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,33</t>
+          <t>28,27; 30,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>24,86; 27,01</t>
+          <t>24,81; 27,04</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,99; 33,43</t>
+          <t>27,03; 32,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>32,99%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,14; 31,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 38,11</t>
+          <t>25,19; 37,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,09; 41,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,5; 40,09</t>
+          <t>30,64; 39,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,06; 35,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,55; 37,47</t>
+          <t>29,08; 36,47</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>29,38%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,21; 33,32</t>
+          <t>22,71; 33,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 34,88</t>
+          <t>26,97; 34,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,89</t>
+          <t>26,0; 32,56</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>28,95%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,74; 31,69</t>
+          <t>21,17; 31,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,62; 35,81</t>
+          <t>27,38; 35,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,29; 32,54</t>
+          <t>25,84; 32,12</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,5</t>
+          <t>27,15; 37,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 33,22</t>
+          <t>21,14; 33,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,35; 44,68</t>
+          <t>38,77; 49,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,98; 41,92</t>
+          <t>18,12; 39,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,56; 37,8</t>
+          <t>34,84; 42,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 36,55</t>
+          <t>20,84; 34,06</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>40,24%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,68; 40,18</t>
+          <t>28,87; 40,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,09; 49,61</t>
+          <t>40,51; 49,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,52; 43,78</t>
+          <t>36,65; 43,83</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>28,89%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,68; 28,4</t>
+          <t>19,33; 28,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,24; 39,63</t>
+          <t>30,17; 39,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,16; 32,56</t>
+          <t>25,8; 32,29</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>43,18%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,0; 35,35</t>
+          <t>26,97; 36,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,63; 66,43</t>
+          <t>35,5; 76,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,21; 54,44</t>
+          <t>33,03; 64,17</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,05</t>
+          <t>3,68; 12,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,09; 16,46</t>
+          <t>12,07; 16,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,03</t>
+          <t>6,38; 13,33</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>28,71%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,23; 25,89</t>
+          <t>16,67; 25,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,79; 40,06</t>
+          <t>29,28; 47,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>27,03; 32,27</t>
+          <t>25,58; 35,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 21,25</t>
+          <t>11,78; 20,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,14; 31,54</t>
+          <t>21,15; 31,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,86; 39,9</t>
+          <t>26,55; 38,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 37,19</t>
+          <t>25,37; 37,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 21,35</t>
+          <t>11,36; 20,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,09; 41,67</t>
+          <t>29,86; 42,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,44; 43,15</t>
+          <t>30,14; 42,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,64; 39,39</t>
+          <t>30,61; 40,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 19,52</t>
+          <t>12,94; 19,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 35,0</t>
+          <t>27,11; 35,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,3; 38,43</t>
+          <t>30,93; 38,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,08; 36,47</t>
+          <t>28,89; 36,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,81; 27,38</t>
+          <t>19,6; 27,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,45; 32,18</t>
+          <t>23,55; 32,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,56; 30,57</t>
+          <t>22,56; 30,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 33,05</t>
+          <t>22,72; 33,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,93; 38,35</t>
+          <t>29,75; 38,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,94; 39,77</t>
+          <t>30,73; 39,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,51; 40,98</t>
+          <t>32,48; 41,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,97; 34,72</t>
+          <t>27,26; 34,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,15; 31,81</t>
+          <t>26,17; 31,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,5; 34,53</t>
+          <t>28,67; 34,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 34,95</t>
+          <t>28,83; 35,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 32,56</t>
+          <t>25,94; 32,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 17,3</t>
+          <t>9,41; 17,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,07; 35,53</t>
+          <t>25,07; 35,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,8</t>
+          <t>9,25; 16,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,17; 31,13</t>
+          <t>22,11; 31,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,23</t>
+          <t>16,15; 25,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,35</t>
+          <t>27,09; 37,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,07</t>
+          <t>17,41; 26,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,38; 35,6</t>
+          <t>27,68; 36,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 19,69</t>
+          <t>13,93; 19,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,42; 34,81</t>
+          <t>27,7; 35,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 20,59</t>
+          <t>14,32; 20,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 32,12</t>
+          <t>26,01; 32,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,14</t>
+          <t>9,84; 17,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,15; 37,12</t>
+          <t>26,86; 37,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 39,46</t>
+          <t>29,51; 39,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 33,0</t>
+          <t>20,98; 32,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 22,31</t>
+          <t>14,75; 22,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,77; 49,76</t>
+          <t>40,01; 50,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 47,24</t>
+          <t>36,88; 47,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 39,3</t>
+          <t>18,15; 38,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 18,72</t>
+          <t>13,17; 18,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,12</t>
+          <t>34,63; 42,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,62; 41,98</t>
+          <t>34,66; 41,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 34,06</t>
+          <t>21,29; 34,15</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,73; 31,87</t>
+          <t>19,43; 31,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,92; 37,89</t>
+          <t>25,52; 38,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 12,25</t>
+          <t>4,83; 11,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,87; 40,27</t>
+          <t>28,75; 40,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,14; 36,57</t>
+          <t>23,39; 36,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,8; 46,78</t>
+          <t>32,93; 46,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,61</t>
+          <t>5,27; 12,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,51; 49,6</t>
+          <t>40,35; 49,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,99; 31,88</t>
+          <t>23,6; 32,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,2; 40,9</t>
+          <t>31,21; 40,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 11,15</t>
+          <t>5,57; 10,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,65; 43,83</t>
+          <t>36,48; 44,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,88; 20,71</t>
+          <t>11,86; 20,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,39; 30,89</t>
+          <t>19,68; 30,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,67; 25,19</t>
+          <t>15,32; 25,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,33; 28,01</t>
+          <t>19,25; 27,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 29,19</t>
+          <t>18,63; 28,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 33,53</t>
+          <t>23,32; 34,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,69; 36,35</t>
+          <t>24,7; 36,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,17; 39,62</t>
+          <t>30,79; 40,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,66; 23,66</t>
+          <t>16,51; 23,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,69</t>
+          <t>23,17; 30,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,64; 29,69</t>
+          <t>22,0; 29,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,8; 32,29</t>
+          <t>25,73; 32,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 18,86</t>
+          <t>12,62; 18,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 25,01</t>
+          <t>18,3; 24,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,28; 30,59</t>
+          <t>23,51; 30,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,97; 36,03</t>
+          <t>27,3; 36,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,99</t>
+          <t>19,69; 26,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,27; 32,8</t>
+          <t>25,21; 32,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,96; 34,15</t>
+          <t>26,69; 33,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,5; 76,71</t>
+          <t>35,53; 76,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,16; 21,81</t>
+          <t>17,34; 21,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 27,79</t>
+          <t>22,82; 27,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,12; 31,05</t>
+          <t>26,09; 31,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,03; 64,17</t>
+          <t>33,19; 63,14</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,72; 26,01</t>
+          <t>19,7; 25,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,34</t>
+          <t>19,62; 25,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,25; 22,05</t>
+          <t>16,27; 21,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,29</t>
+          <t>3,54; 12,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,78; 27,23</t>
+          <t>20,81; 27,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,12; 29,71</t>
+          <t>23,1; 29,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,38; 23,26</t>
+          <t>17,38; 23,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,3</t>
+          <t>11,96; 16,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,22; 25,66</t>
+          <t>21,18; 25,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,54; 26,78</t>
+          <t>22,28; 26,73</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,62</t>
+          <t>17,45; 21,61</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,33</t>
+          <t>6,8; 13,3</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,12</t>
+          <t>17,2; 19,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,21; 27,39</t>
+          <t>24,41; 27,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,7; 24,75</t>
+          <t>21,7; 24,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,67; 25,59</t>
+          <t>17,43; 25,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,68; 25,65</t>
+          <t>22,6; 25,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,84; 34,27</t>
+          <t>30,76; 34,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,98; 30,09</t>
+          <t>26,86; 30,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,28; 47,11</t>
+          <t>29,33; 46,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,32; 22,3</t>
+          <t>20,31; 22,3</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>28,27; 30,45</t>
+          <t>28,16; 30,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>24,81; 27,04</t>
+          <t>24,85; 26,95</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,16</t>
+          <t>25,69; 35,04</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44336</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77078</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>95575</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>96882</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40447</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>102658</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>103561</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>101392</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>84784</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>179736</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>199136</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>198274</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31661; 56258</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62055; 93174</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77583; 112492</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79024; 116910</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29308; 52982</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85488; 120629</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>85435; 119811</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>88645; 116018</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68133; 103379</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>157136; 205841</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>178032; 224091</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>173642; 218905</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>115610</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>139460</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>132358</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>117627</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>171532</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>184293</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>192786</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>136741</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>287141</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>323753</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>325144</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>254368</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>96622; 135333</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>118306; 162137</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>113390; 153575</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96169; 143295</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>149353; 193846</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>160944; 206749</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>169915; 216489</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>120603; 152880</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>260462; 315290</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>294234; 356659</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>295729; 359319</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>224583; 284116</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40240</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>96478</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40848</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>81943</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>67517</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>110812</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72850</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>108945</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>107757</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>207290</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>113698</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>190888</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29548; 54935</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80493; 113633</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29481; 53216</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>69338; 98661</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>53541; 84001</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>92396; 129481</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>58549; 90489</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95702; 125097</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>89939; 127144</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>183368; 232528</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>93750; 133519</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>171493; 212515</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45603</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>119603</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>126378</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81591</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67839</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>172834</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>159685</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>139419</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>113442</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>292437</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>286063</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>221010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>34335; 60553</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>100445; 138442</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>108939; 145227</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>64446; 100669</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54794; 84478</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>155150; 195039</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>140870; 179812</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82958; 176920</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>94892; 135486</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>263819; 319914</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>260361; 312783</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>162674; 261008</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>51485</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66803</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16242</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>61689</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>61197</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>88075</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18309</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>94077</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>112682</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>154878</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>34552</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>155766</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>39509; 64107</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54253; 82129</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10209; 25221</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51381; 71913</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>48337; 74869</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>72029; 101319</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11513; 28073</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>84067; 102895</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>96740; 131241</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>134594; 173634</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23925; 46379</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>141205; 171332</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>42798</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>68682</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>52564</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>62425</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>65739</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>79866</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83827</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>89630</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>108537</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>148547</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>136392</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>152054</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31901; 54409</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>53931; 83764</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>40314; 66188</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>51903; 74906</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>51445; 79635</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>65306; 95198</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>67228; 97978</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>79051; 102787</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>89999; 127659</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>128368; 171281</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>117737; 157693</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>135413; 168628</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>93878</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>140126</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>176228</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>194108</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>147865</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>200396</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>209226</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>440070</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>241743</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>340521</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>385454</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>634178</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>76499; 115008</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>120774; 163865</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>153302; 201659</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>170407; 225280</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>125001; 169452</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>174589; 225821</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>183994; 233091</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>300011; 647070</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>215211; 269842</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>308610; 372389</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>349962; 418575</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>487421; 927310</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>164428</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>176290</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>146428</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>78437</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>184864</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>214827</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>166660</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>100722</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>349292</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>391117</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>313088</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>179159</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>143154; 188892</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>152279; 200915</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>126701; 169461</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>32881; 112769</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>161626; 209807</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>189137; 243682</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>143368; 192426</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>85423; 117640</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>318457; 384692</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>355305; 426381</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>279831; 346607</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>111689; 218573</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>598379</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>884519</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>786621</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>774702</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>807000</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1153761</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1006904</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1210995</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1405378</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2038279</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1793526</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1985697</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>555576; 640897</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>833100; 936225</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>735079; 835347</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>585241; 853643</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>758572; 855771</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1091762; 1208400</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>948199; 1061415</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1043775; 1642349</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1338043; 1468558</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1960964; 2120399</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1718740; 1864026</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1776509; 2422836</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>